--- a/테이블정의서 v1.0.xlsx
+++ b/테이블정의서 v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f3a18e50d612801/문서/GitHub/New-Year-s-Resolution-Check-Program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{10E0350A-7069-4EE7-886F-A40EEF45E8A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{58CD2E65-3009-45C7-B4AE-FEC9EB132771}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{10E0350A-7069-4EE7-886F-A40EEF45E8A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D738B359-3A8D-403A-9235-334670005AF3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="622" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1258,27 +1258,30 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1294,6 +1297,9 @@
     <xf numFmtId="0" fontId="25" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1308,12 +1314,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1743,137 +1743,137 @@
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="48" t="s">
+      <c r="H13" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="49"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="49"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
     </row>
     <row r="14" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="47" t="s">
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="50" t="s">
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="47" t="s">
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
     </row>
     <row r="15" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
     </row>
     <row r="16" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
     </row>
     <row r="17" spans="5:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="46"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
     </row>
     <row r="18" spans="5:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="47" t="s">
+      <c r="H18" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
     </row>
     <row r="20" spans="5:22" ht="18" x14ac:dyDescent="0.25">
       <c r="O20" s="37" t="s">
@@ -1882,11 +1882,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="H13:V13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:V14"/>
     <mergeCell ref="S17:V17"/>
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="O15:R15"/>
@@ -1903,6 +1898,11 @@
     <mergeCell ref="O16:R16"/>
     <mergeCell ref="S16:V16"/>
     <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H13:V13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:V14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.92" bottom="1" header="0.5" footer="0.5"/>
@@ -1930,16 +1930,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="18.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="1"/>
@@ -1971,7 +1971,7 @@
       <c r="C5" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="44">
         <v>43831</v>
       </c>
       <c r="E5" s="35" t="s">
@@ -1980,7 +1980,7 @@
       <c r="F5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G5" s="44">
         <v>43831</v>
       </c>
     </row>
@@ -2134,7 +2134,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2359,7 +2359,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.9140625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2379,38 +2379,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
+      <c r="B1" s="62"/>
       <c r="C1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="58" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="13" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="62" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
@@ -2455,7 +2455,7 @@
         <v>44</v>
       </c>
       <c r="E4" s="26">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F4" s="26" t="s">
         <v>45</v>
@@ -2480,7 +2480,7 @@
         <v>44</v>
       </c>
       <c r="E5" s="28">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F5" s="26" t="s">
         <v>45</v>
@@ -2503,7 +2503,7 @@
         <v>44</v>
       </c>
       <c r="E6" s="28">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F6" s="26" t="s">
         <v>45</v>
@@ -2709,30 +2709,30 @@
       <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:9" ht="13" x14ac:dyDescent="0.25">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
     </row>
     <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2784,32 +2784,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="60"/>
+      <c r="B1" s="62"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
     </row>
     <row r="2" spans="1:9" ht="13" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="14" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
@@ -3052,30 +3052,30 @@
       <c r="I22" s="29"/>
     </row>
     <row r="23" spans="1:9" ht="13" x14ac:dyDescent="0.25">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
     </row>
     <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="9">
